--- a/Technical checklist Mozilla OK MS OK CS21 inprog.xlsx
+++ b/Technical checklist Mozilla OK MS OK CS21 inprog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\Documents\_sajat\DEV\x509lint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\vargav\x509lint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EDCDD9-624A-4B2B-B537-DB72DCABE0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCCD21C-C91F-49F3-92C6-590B4DEA7482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{77038A86-0AAF-479C-B134-832BDF2C4B9A}"/>
+    <workbookView minimized="1" xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{77038A86-0AAF-479C-B134-832BDF2C4B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Validator sum" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="CAB BL 1.7.3 (CP)" sheetId="14" r:id="rId4"/>
     <sheet name="EVGL 1.7.4 (CP)" sheetId="16" r:id="rId5"/>
     <sheet name="CAB CS 2.1 (F)" sheetId="6" r:id="rId6"/>
+    <sheet name="RFC 5280 (TODO)" sheetId="17" r:id="rId7"/>
+    <sheet name="ETSI 319412 (TODO)" sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CAB BL 1.7.3 (CP)'!$A$1:$E$93</definedName>
@@ -28,10 +30,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'MS RP (F)'!$A$1:$D$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4451,7 +4462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43821EEE-99DA-4F03-B55E-E06613096382}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
@@ -4780,7 +4791,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="9" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>215</v>
       </c>
@@ -5237,7 +5248,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="12" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" s="12" customFormat="1" ht="400.2" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>229</v>
       </c>
@@ -5287,7 +5298,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="21" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" s="21" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>49</v>
       </c>
@@ -6281,7 +6292,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>268</v>
       </c>
@@ -11438,4 +11449,28 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B85D28-A023-4212-A594-C112FAF7C091}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2386A015-B20E-4D83-8658-C02AE9B7FB47}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>